--- a/Used Fiat 500 in Italy/Media/Fiat500_images.xlsx
+++ b/Used Fiat 500 in Italy/Media/Fiat500_images.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renate\Documents\GitHub\Python-in-Power-BI\Used Fiat 500 in Italy\Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8793BCCA-B457-4AE2-90CB-3EAF6D09E09F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEC4567-223E-4C6C-B9E0-8F900E522632}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{9313C738-96B1-4E60-8085-6F3E601CBC93}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{9313C738-96B1-4E60-8085-6F3E601CBC93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>pop</t>
+  </si>
+  <si>
+    <t>Full Model Name</t>
+  </si>
+  <si>
+    <t>Fiat 500 Star</t>
+  </si>
+  <si>
+    <t>Fiat 500 Sport</t>
+  </si>
+  <si>
+    <t>Fiat 500 Lounge</t>
+  </si>
+  <si>
+    <t>Fiat 500 Pop</t>
   </si>
 </sst>
 </file>
@@ -147,10 +162,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BD9633F-051A-43FE-BEEE-BC898F752995}" name="Fiat500_models" displayName="Fiat500_models" ref="A1:B5" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:B5" xr:uid="{409B23A4-6395-45A3-A4EE-9D8F0B4C0F27}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BD9633F-051A-43FE-BEEE-BC898F752995}" name="Fiat500_models" displayName="Fiat500_models" ref="A1:C5" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C5" xr:uid="{409B23A4-6395-45A3-A4EE-9D8F0B4C0F27}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{31DB01FE-E618-45DE-AFBC-2F3A7A481FAF}" name="Model"/>
+    <tableColumn id="3" xr3:uid="{8BEC7A89-CA5B-4E7C-AD1D-7896E7C0BDE0}" name="Full Model Name"/>
     <tableColumn id="2" xr3:uid="{FCF975C4-B97A-491F-A0BA-5751CFB4E58F}" name="Image_URL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -454,54 +470,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5483CA-C37D-4E63-B914-83F702AB82C0}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="70.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Used Fiat 500 in Italy/Media/Fiat500_images.xlsx
+++ b/Used Fiat 500 in Italy/Media/Fiat500_images.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renate\Documents\GitHub\Python-in-Power-BI\Used Fiat 500 in Italy\Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEC4567-223E-4C6C-B9E0-8F900E522632}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E2B119-55D3-4A0B-98B8-5437419D2E8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{9313C738-96B1-4E60-8085-6F3E601CBC93}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Fiat 500 Pop</t>
+  </si>
+  <si>
+    <t>Model no</t>
   </si>
 </sst>
 </file>
@@ -162,11 +165,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BD9633F-051A-43FE-BEEE-BC898F752995}" name="Fiat500_models" displayName="Fiat500_models" ref="A1:C5" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C5" xr:uid="{409B23A4-6395-45A3-A4EE-9D8F0B4C0F27}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BD9633F-051A-43FE-BEEE-BC898F752995}" name="Fiat500_models" displayName="Fiat500_models" ref="A1:D5" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D5" xr:uid="{409B23A4-6395-45A3-A4EE-9D8F0B4C0F27}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{31DB01FE-E618-45DE-AFBC-2F3A7A481FAF}" name="Model"/>
     <tableColumn id="3" xr3:uid="{8BEC7A89-CA5B-4E7C-AD1D-7896E7C0BDE0}" name="Full Model Name"/>
+    <tableColumn id="4" xr3:uid="{F29F6E62-5517-4414-8302-4CC5DC750E30}" name="Model no"/>
     <tableColumn id="2" xr3:uid="{FCF975C4-B97A-491F-A0BA-5751CFB4E58F}" name="Image_URL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -470,19 +474,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5483CA-C37D-4E63-B914-83F702AB82C0}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="70.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,50 +495,65 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
